--- a/Project/PCA研究国债/美国国债/美国国债历年信息汇总/各指标对应系数.xlsx
+++ b/Project/PCA研究国债/美国国债/美国国债历年信息汇总/各指标对应系数.xlsx
@@ -108,10 +108,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -147,31 +147,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>美国国债因子载荷矩阵分析图</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -205,9 +180,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -224,15 +198,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$E$3:$E$13</c:f>
@@ -275,6 +251,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -291,15 +268,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$F$3:$F$13</c:f>
@@ -342,6 +321,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -358,15 +338,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$G$3:$G$13</c:f>
@@ -409,6 +391,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -418,18 +401,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="267926528"/>
-        <c:axId val="267926920"/>
-      </c:barChart>
+        <c:smooth val="0"/>
+        <c:axId val="188409168"/>
+        <c:axId val="244159320"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="267926528"/>
+        <c:axId val="188409168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -466,7 +449,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="267926920"/>
+        <c:crossAx val="244159320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -474,7 +457,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="267926920"/>
+        <c:axId val="244159320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -525,7 +508,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="267926528"/>
+        <c:crossAx val="188409168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -647,7 +630,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -755,6 +738,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -765,6 +753,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -796,6 +789,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1153,20 +1149,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1474,40 +1470,40 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="G13" sqref="E2:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>2</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1521,15 +1517,15 @@
       <c r="C3" s="1">
         <v>0.153</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <f>A3/SQRT(19.341)</f>
         <v>0.37222815265905601</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <f xml:space="preserve"> B3/SQRT(1.304)</f>
         <v>-0.2285607811389492</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <f xml:space="preserve"> C3/SQRT(0.16)</f>
         <v>0.38249999999999995</v>
       </c>
@@ -1544,15 +1540,15 @@
       <c r="C4" s="1">
         <v>0.114</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <f t="shared" ref="E4:E13" si="0">A4/SQRT(19.341)</f>
         <v>0.37745799231156563</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <f t="shared" ref="F4:F13" si="1" xml:space="preserve"> B4/SQRT(1.304)</f>
         <v>-0.22768506933381913</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <f t="shared" ref="G4:G13" si="2" xml:space="preserve"> C4/SQRT(0.16)</f>
         <v>0.28499999999999998</v>
       </c>
@@ -1567,15 +1563,15 @@
       <c r="C5" s="1">
         <v>6.3E-2</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <f t="shared" si="0"/>
         <v>0.38336998496222874</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <f t="shared" si="1"/>
         <v>-0.22067937489277853</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <f t="shared" si="2"/>
         <v>0.1575</v>
       </c>
@@ -1590,15 +1586,15 @@
       <c r="C6" s="1">
         <v>0</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>0.37086384666274913</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <f t="shared" si="1"/>
         <v>-0.19615944434913649</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1613,15 +1609,15 @@
       <c r="C7" s="1">
         <v>-0.108</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>0.33948480874769132</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <f t="shared" si="1"/>
         <v>-0.10070685758995845</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <f t="shared" si="2"/>
         <v>-0.26999999999999996</v>
       </c>
@@ -1636,15 +1632,15 @@
       <c r="C8" s="1">
         <v>-0.16900000000000001</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>0.31560945381232114</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <f t="shared" si="1"/>
         <v>1.7514236102601471E-3</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <f t="shared" si="2"/>
         <v>-0.42249999999999999</v>
       </c>
@@ -1659,15 +1655,15 @@
       <c r="C9" s="1">
         <v>-0.16900000000000001</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>0.27240643059593711</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <f t="shared" si="1"/>
         <v>0.18827803810296581</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <f t="shared" si="2"/>
         <v>-0.42249999999999999</v>
       </c>
@@ -1682,15 +1678,15 @@
       <c r="C10" s="1">
         <v>-0.11799999999999999</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <f t="shared" si="0"/>
         <v>0.23579755302836961</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <f t="shared" si="1"/>
         <v>0.30912626721091596</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <f t="shared" si="2"/>
         <v>-0.29499999999999998</v>
       </c>
@@ -1705,15 +1701,15 @@
       <c r="C11" s="1">
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <f t="shared" si="0"/>
         <v>0.20487328377874739</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <f t="shared" si="1"/>
         <v>0.40282743035983382</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <f t="shared" si="2"/>
         <v>-0.01</v>
       </c>
@@ -1728,15 +1724,15 @@
       <c r="C12" s="1">
         <v>0.112</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <f t="shared" si="0"/>
         <v>0.17190255553466485</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <f t="shared" si="1"/>
         <v>0.52630279488317422</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <f t="shared" si="2"/>
         <v>0.27999999999999997</v>
       </c>
@@ -1751,15 +1747,15 @@
       <c r="C13" s="1">
         <v>0.157</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <f t="shared" si="0"/>
         <v>0.13552106229981514</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <f t="shared" si="1"/>
         <v>0.47726293379589008</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <f t="shared" si="2"/>
         <v>0.39249999999999996</v>
       </c>
